--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-03 09:35:37</t>
+          <t>2022-03-14 12:07:07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-09 19:26:24</t>
+          <t>2022-03-16 20:35:31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-10 07:31:35</t>
+          <t>2022-03-17 07:17:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-10 05:38:47</t>
+          <t>2022-03-16 23:02:18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-10 06:32:51</t>
+          <t>2022-03-17 00:24:10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-10 06:33:29</t>
+          <t>2022-03-17 00:24:56</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-09 22:50:08</t>
+          <t>2022-03-16 23:58:27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-10 06:52:17</t>
+          <t>2022-03-17 06:45:08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-10 00:12:36</t>
+          <t>2022-03-17 00:06:06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-10 20:31:22</t>
+          <t>2022-03-17 08:27:34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-09 23:43:07</t>
+          <t>2022-03-16 23:30:27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-09 23:57:11</t>
+          <t>2022-03-16 23:45:24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-09 23:42:03</t>
+          <t>2022-03-17 07:18:02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-10 08:45:04</t>
+          <t>2022-03-17 08:26:17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-10 07:20:36</t>
+          <t>2022-03-17 07:23:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-10 00:00:53</t>
+          <t>2022-03-16 23:59:13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-09 23:30:54</t>
+          <t>2022-03-16 23:32:47</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-11 18:24:10</t>
+          <t>2022-03-17 00:05:11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-09 23:47:22</t>
+          <t>2022-03-16 23:44:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-09 23:41:13</t>
+          <t>2022-03-17 00:04:26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-09 23:50:51</t>
+          <t>2022-03-16 23:43:16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-10 04:39:46</t>
+          <t>2022-03-17 01:25:25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-10 00:57:23</t>
+          <t>2022-03-17 09:42:42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-10 09:46:53</t>
+          <t>2022-03-17 09:13:45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-10 12:15:06</t>
+          <t>2022-03-17 09:06:14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-10 10:35:11</t>
+          <t>2022-03-17 10:05:52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-14 12:07:07</t>
+          <t>2022-03-17 09:21:11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-10 11:28:30</t>
+          <t>2022-03-17 12:41:37</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-10 09:53:33</t>
+          <t>2022-03-17 10:24:27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-10 10:07:53</t>
+          <t>2022-03-17 10:10:10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-10 09:54:36</t>
+          <t>2022-03-17 09:59:06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-10 10:09:23</t>
+          <t>2022-03-17 10:08:05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-10 10:00:11</t>
+          <t>2022-03-17 10:00:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-10 12:25:59</t>
+          <t>2022-03-17 13:52:56</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-10 08:34:34</t>
+          <t>2022-03-17 10:15:26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-10 09:11:15</t>
+          <t>2022-03-17 09:52:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-10 15:08:26</t>
+          <t>2022-03-17 16:09:07</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-10 15:00:35</t>
+          <t>2022-03-17 15:02:32</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-10 22:37:21</t>
+          <t>2022-03-17 14:39:04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-11 17:02:49</t>
+          <t>2022-03-17 12:05:09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-10 07:47:29</t>
+          <t>2022-03-17 09:11:07</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-10 10:17:43</t>
+          <t>2022-03-17 14:08:03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-10 06:56:58</t>
+          <t>2022-03-17 09:04:02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-10 10:02:07</t>
+          <t>2022-03-17 10:04:18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-10 16:30:22</t>
+          <t>2022-03-17 09:19:53</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-21 14:07:18</t>
+          <t>2022-03-24 09:52:08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-17 09:13:45</t>
+          <t>2022-03-24 10:06:32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-17 09:06:14</t>
+          <t>2022-03-24 08:36:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-18 09:37:57</t>
+          <t>2022-03-24 09:50:14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-17 12:41:37</t>
+          <t>2022-03-24 11:47:47</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-21 12:09:51</t>
+          <t>2022-03-24 11:13:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-21 13:05:58</t>
+          <t>2022-03-24 10:03:34</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-21 12:05:41</t>
+          <t>2022-03-24 10:20:53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-21 12:16:24</t>
+          <t>2022-03-24 10:05:32</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-21 12:07:23</t>
+          <t>2022-03-24 10:00:05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-17 13:52:56</t>
+          <t>2022-03-24 08:25:59</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-17 08:26:17</t>
+          <t>2022-03-24 08:50:40</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-17 10:15:26</t>
+          <t>2022-03-24 08:28:34</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-17 09:52:59</t>
+          <t>2022-03-24 12:43:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-17 16:09:07</t>
+          <t>2022-03-24 16:03:41</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-17 15:02:32</t>
+          <t>2022-03-24 14:51:20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-17 09:11:07</t>
+          <t>2022-03-24 09:59:39</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-17 14:08:03</t>
+          <t>2022-03-24 08:33:37</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-21 12:14:37</t>
+          <t>2022-03-24 10:03:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-17 09:19:53</t>
+          <t>2022-03-24 08:33:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-10 11:33:38</t>
+          <t>2022-03-24 10:44:32</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-17 09:21:11</t>
+          <t>2022-03-25 09:44:28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-24 09:52:08</t>
+          <t>2022-03-26 11:34:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-17 10:05:52</t>
+          <t>2022-03-28 20:33:07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gnc.xlsx
+++ b/combustibles_vehicular_estaciones_gnc.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-23 22:56:50</t>
+          <t>2022-03-30 23:32:05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-24 07:51:54</t>
+          <t>2022-03-31 00:39:12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-24 07:52:34</t>
+          <t>2022-03-31 00:39:51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-24 00:14:24</t>
+          <t>2022-03-31 00:18:27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-24 06:54:40</t>
+          <t>2022-03-31 06:54:33</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-24 01:31:08</t>
+          <t>2022-03-31 00:07:49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-24 08:25:59</t>
+          <t>2022-03-31 08:35:38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-23 23:33:12</t>
+          <t>2022-03-30 23:41:20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-24 00:01:36</t>
+          <t>2022-03-31 00:05:08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-23 21:03:39</t>
+          <t>2022-03-31 07:08:52</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-23 22:18:52</t>
+          <t>2022-03-30 21:51:01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-24 07:23:55</t>
+          <t>2022-03-31 07:24:33</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-24 08:28:34</t>
+          <t>2022-03-31 08:50:10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-23 23:36:02</t>
+          <t>2022-03-30 23:57:31</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-24 00:28:27</t>
+          <t>2022-03-31 01:16:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-23 23:51:42</t>
+          <t>2022-03-31 00:03:17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-23 23:45:17</t>
+          <t>2022-03-30 23:46:51</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-24 00:20:03</t>
+          <t>2022-03-30 23:59:49</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-23 23:43:01</t>
+          <t>2022-03-30 23:52:48</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-24 06:54:10</t>
+          <t>2022-03-31 07:05:44</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-24 01:33:18</t>
+          <t>2022-03-31 01:51:04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
